--- a/Protocols.xlsx
+++ b/Protocols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ChaosLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464FCC07-CB61-4921-A3E8-ACCB316CD2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670AAD8-42C2-4694-8077-FF4E3D194824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="3" xr2:uid="{B267B5E8-1B2C-4F20-8775-6BC63BF4DC0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="4" xr2:uid="{B267B5E8-1B2C-4F20-8775-6BC63BF4DC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ideas" sheetId="4" r:id="rId1"/>
@@ -1058,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EC37D9-60EE-48A5-B40F-A3E613F64AFA}">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
@@ -2419,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B881834B-6C5C-4742-B665-C1F21747C16C}">
   <dimension ref="A5:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B98" sqref="B98:F101"/>
     </sheetView>
   </sheetViews>
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2246D-446E-45CE-B123-78C9848DD0D0}">
   <dimension ref="A5:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,7 +3463,7 @@
         <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>

--- a/Protocols.xlsx
+++ b/Protocols.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ChaosLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670AAD8-42C2-4694-8077-FF4E3D194824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3790C0B0-D586-4EB5-913C-DD2E541441C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="4" xr2:uid="{B267B5E8-1B2C-4F20-8775-6BC63BF4DC0C}"/>
+    <workbookView xWindow="3675" yWindow="600" windowWidth="28155" windowHeight="22260" activeTab="1" xr2:uid="{B267B5E8-1B2C-4F20-8775-6BC63BF4DC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ideas" sheetId="4" r:id="rId1"/>
-    <sheet name="Protocols" sheetId="2" r:id="rId2"/>
-    <sheet name="Console" sheetId="1" r:id="rId3"/>
-    <sheet name="Tornado" sheetId="3" r:id="rId4"/>
-    <sheet name="Storage" sheetId="5" r:id="rId5"/>
+    <sheet name="Memory" sheetId="6" r:id="rId2"/>
+    <sheet name="Protocols" sheetId="2" r:id="rId3"/>
+    <sheet name="Console" sheetId="1" r:id="rId4"/>
+    <sheet name="Tornado" sheetId="3" r:id="rId5"/>
+    <sheet name="Storage" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="159">
   <si>
     <t>The console server acts as a router of input/output events. These can be events concerning text data, graphics data, keyboard, mouse, joystick etc</t>
   </si>
@@ -394,13 +395,136 @@
   </si>
   <si>
     <t>watched_object_changed</t>
+  </si>
+  <si>
+    <t>CHANNEL HEADER</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>AtomicU64</t>
+  </si>
+  <si>
+    <t>channel_magic</t>
+  </si>
+  <si>
+    <t>protocol_name</t>
+  </si>
+  <si>
+    <t>[u8; 32]</t>
+  </si>
+  <si>
+    <t>read_pointer</t>
+  </si>
+  <si>
+    <t>write_offset</t>
+  </si>
+  <si>
+    <t>FROM START OF CHANNEL</t>
+  </si>
+  <si>
+    <t>initialized to size_of(ChannelHeader)</t>
+  </si>
+  <si>
+    <t>initialized to 0 = no message</t>
+  </si>
+  <si>
+    <t>MESSAGE HEADER</t>
+  </si>
+  <si>
+    <t>message_magic</t>
+  </si>
+  <si>
+    <t>"CCHANNEL"</t>
+  </si>
+  <si>
+    <t>"CMESSAGE"</t>
+  </si>
+  <si>
+    <t>message_id</t>
+  </si>
+  <si>
+    <t>[u8; 8]/u64</t>
+  </si>
+  <si>
+    <t>PSEUDO CODE FOR WRITING A MESSAGE</t>
+  </si>
+  <si>
+    <t>pointer to channel</t>
+  </si>
+  <si>
+    <t>look at channel.write_offset and set pointer to write position</t>
+  </si>
+  <si>
+    <t>write message header at pointer</t>
+  </si>
+  <si>
+    <t>pointer to channel, message_id</t>
+  </si>
+  <si>
+    <t>write parameter object</t>
+  </si>
+  <si>
+    <t>calculate new write offset = write_offset + used_size</t>
+  </si>
+  <si>
+    <t>SET channel.read_offset to message pointer IF it was 0</t>
+  </si>
+  <si>
+    <t>AtomicBool</t>
+  </si>
+  <si>
+    <t>spin to get channel lock using while (channel.lock.swap(true, Ordering::Acquire));</t>
+  </si>
+  <si>
+    <t>release lock using channel.lock.swap(false, Ordering::Release)</t>
+  </si>
+  <si>
+    <t>PSEUDO CODE FOR READING A MESSAGE</t>
+  </si>
+  <si>
+    <t>look at channel.read_offset</t>
+  </si>
+  <si>
+    <t>if 0 =&gt; no message to read</t>
+  </si>
+  <si>
+    <t>update channel.write_offset</t>
+  </si>
+  <si>
+    <t>set pointer to read position</t>
+  </si>
+  <si>
+    <t>check channel_magic</t>
+  </si>
+  <si>
+    <t>THIS IS FOR DEBUGGING CHECKING ONLY</t>
+  </si>
+  <si>
+    <t>ONLY FOR DEBUGGING CHECKING</t>
+  </si>
+  <si>
+    <t>check message_magic</t>
+  </si>
+  <si>
+    <t>read message_id and let correct handler read message parameters</t>
+  </si>
+  <si>
+    <t>calculate new read offset = read_offset + used_size</t>
+  </si>
+  <si>
+    <t>else set read_offset to new read_offset</t>
+  </si>
+  <si>
+    <t>if read_offset = write_offset set read_offset to 0 and write_offset to size_of(ChannelHeader)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +536,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,13 +580,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,6 +952,301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962081FC-30B2-4417-8B52-6D8D25580EA9}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AA3561-70DD-4D06-A815-8C116DF3DA79}">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -1054,7 +1481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EC37D9-60EE-48A5-B40F-A3E613F64AFA}">
   <dimension ref="A1:N99"/>
   <sheetViews>
@@ -2415,7 +2842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B881834B-6C5C-4742-B665-C1F21747C16C}">
   <dimension ref="A5:N98"/>
   <sheetViews>
@@ -3236,11 +3663,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2246D-446E-45CE-B123-78C9848DD0D0}">
   <dimension ref="A5:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/Protocols.xlsx
+++ b/Protocols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ChaosLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3790C0B0-D586-4EB5-913C-DD2E541441C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B565EDFC-5EDC-4942-B703-6BB8B6CD0CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="600" windowWidth="28155" windowHeight="22260" activeTab="1" xr2:uid="{B267B5E8-1B2C-4F20-8775-6BC63BF4DC0C}"/>
+    <workbookView xWindow="20370" yWindow="-19650" windowWidth="28155" windowHeight="20985" activeTab="1" xr2:uid="{B267B5E8-1B2C-4F20-8775-6BC63BF4DC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ideas" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="207">
   <si>
     <t>The console server acts as a router of input/output events. These can be events concerning text data, graphics data, keyboard, mouse, joystick etc</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Enum</t>
   </si>
   <si>
-    <t>Table, Struct</t>
-  </si>
-  <si>
     <t>Inherit from</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>i64, bit, string, none</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>FROM SERVER</t>
   </si>
   <si>
@@ -316,18 +310,6 @@
     <t>bit</t>
   </si>
   <si>
-    <t>generate a client and a server from YAML IDL</t>
-  </si>
-  <si>
-    <t>make it possible to instantiate each using an adress so that unit tests can be written</t>
-  </si>
-  <si>
-    <t>develop using TDD!!!</t>
-  </si>
-  <si>
-    <t>generate an error for a call that has Overwrite=true and returns something</t>
-  </si>
-  <si>
     <t>streaming calls? Eg. list all files</t>
   </si>
   <si>
@@ -370,12 +352,6 @@
     <t>read_object</t>
   </si>
   <si>
-    <t>MARK calls if they are sync/async</t>
-  </si>
-  <si>
-    <t>all sync calls always returns result with status code: SUCCESS, DOES_NOT_EXIST, ACCESS_DENIED etc</t>
-  </si>
-  <si>
     <t>length</t>
   </si>
   <si>
@@ -436,12 +412,6 @@
     <t>message_magic</t>
   </si>
   <si>
-    <t>"CCHANNEL"</t>
-  </si>
-  <si>
-    <t>"CMESSAGE"</t>
-  </si>
-  <si>
     <t>message_id</t>
   </si>
   <si>
@@ -518,13 +488,814 @@
   </si>
   <si>
     <t>if read_offset = write_offset set read_offset to 0 and write_offset to size_of(ChannelHeader)</t>
+  </si>
+  <si>
+    <t>CCHA NNEL</t>
+  </si>
+  <si>
+    <t>CMES SAGE</t>
+  </si>
+  <si>
+    <t>protocol_version</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>PointerButton</t>
+  </si>
+  <si>
+    <t>KeyCode</t>
+  </si>
+  <si>
+    <t>use async???</t>
+  </si>
+  <si>
+    <t>objects[]</t>
+  </si>
+  <si>
+    <t>Map|Table</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Table, Map</t>
+  </si>
+  <si>
+    <t>MapField</t>
+  </si>
+  <si>
+    <t>some_int</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>will generate structs</t>
+  </si>
+  <si>
+    <t>WriteObjectsArgumentsRead</t>
+  </si>
+  <si>
+    <t>GenerateCode(SourceGenerator, StructName, List&lt;Field&gt;)</t>
+  </si>
+  <si>
+    <t>WriteObjectsArguments</t>
+  </si>
+  <si>
+    <t>WriteObjectsArgumentsFixed</t>
+  </si>
+  <si>
+    <t>Vec&lt;WriteObjectsArgumentsObjectsEnum&gt;</t>
+  </si>
+  <si>
+    <t>some_bool</t>
+  </si>
+  <si>
+    <t>Vec&lt;*const WriteObjectsArgumentsObjectsEnum&gt;</t>
+  </si>
+  <si>
+    <t>Generate a normal struct for all fields</t>
+  </si>
+  <si>
+    <t>Filter out fixed sized fields and generate a struct called &lt;StructName&gt;Fixed</t>
+  </si>
+  <si>
+    <t>Generate a struct where all vectors are of pointer types called &lt;StructName&gt;Read</t>
+  </si>
+  <si>
+    <t>IF all vectors contain FIXED SIZE structs, also generate StructName::create_at(pointer, objects_size, some_int, text &amp;str, some_bool) -&gt; usize, &amp;'static Vec&lt;WriteObjectsArgumentsObjectsEnum&gt;</t>
+  </si>
+  <si>
+    <t>Generate StructName::write_at(pointer, StructName)</t>
+  </si>
+  <si>
+    <t>Generate &lt;StructName&gt;Read::read_from(pointer) -&gt; usize, *const StructNameRead</t>
+  </si>
+  <si>
+    <t>STEP 2 extra feature</t>
+  </si>
+  <si>
+    <r>
+      <t>pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>struct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TestType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OtherType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>struct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OtherType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OtherTypePathsEnum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>enum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OtherTypePathsEnum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TypeTestType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TestType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TypeI64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TypeString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>MEMORY WHEN WRITING TestType</t>
+  </si>
+  <si>
+    <t>uninit name</t>
+  </si>
+  <si>
+    <t>uninit objects</t>
+  </si>
+  <si>
+    <t>name length</t>
+  </si>
+  <si>
+    <t>name bytes rounded up to 8</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>paths uninit</t>
+  </si>
+  <si>
+    <t>objects[0]</t>
+  </si>
+  <si>
+    <t>objects[1]</t>
+  </si>
+  <si>
+    <t>objects length</t>
+  </si>
+  <si>
+    <t>objects[0] paths length</t>
+  </si>
+  <si>
+    <t>objects[0].paths[0]</t>
+  </si>
+  <si>
+    <t>enum uninit</t>
+  </si>
+  <si>
+    <t>enum type</t>
+  </si>
+  <si>
+    <t>enum object…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,13 +1313,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +1382,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -577,19 +1402,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -902,61 +1740,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C150E81-FD79-4186-B750-D57343C8316C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A7:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>174</v>
+      </c>
+      <c r="V47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962081FC-30B2-4417-8B52-6D8D25580EA9}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,280 +1972,419 @@
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="E6" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
         <v>134</v>
       </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="O28" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O34" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O35" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O36" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
         <v>126</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="O38" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O39" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="O40" t="s">
+        <v>199</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="O43" t="s">
+        <v>200</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="D9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="O46" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="O47" t="s">
+        <v>203</v>
+      </c>
+      <c r="P47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>9</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>10</v>
-      </c>
-      <c r="B48" t="s">
-        <v>145</v>
+      <c r="P49" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1251,7 +2398,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,12 +2408,12 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
@@ -1302,7 +2449,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -1342,7 +2489,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1355,7 +2502,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="J8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
@@ -1366,7 +2513,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -1406,7 +2553,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>49</v>
@@ -1419,10 +2566,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="J11" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1431,7 +2578,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1447,7 +2594,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -1463,7 +2610,7 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1485,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EC37D9-60EE-48A5-B40F-A3E613F64AFA}">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +2679,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1672,7 +2819,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -1683,7 +2830,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>0</v>
@@ -1879,7 +3026,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>49</v>
@@ -1890,7 +3037,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>49</v>
@@ -1901,7 +3048,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
@@ -1923,7 +3070,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>49</v>
@@ -1934,21 +3081,21 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>4</v>
@@ -1972,13 +3119,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" s="1" t="b">
         <v>1</v>
@@ -1986,7 +3133,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>4</v>
@@ -2010,7 +3157,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>49</v>
@@ -2021,13 +3168,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" s="1" t="b">
         <v>1</v>
@@ -2050,7 +3197,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2424,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>30</v>
@@ -2432,7 +3579,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>28</v>
@@ -2454,7 +3601,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
@@ -2493,16 +3640,16 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>30</v>
@@ -2510,7 +3657,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>4</v>
@@ -2549,16 +3696,16 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>30</v>
@@ -2566,7 +3713,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>4</v>
@@ -2622,7 +3769,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>4</v>
@@ -2678,22 +3825,22 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J91" s="5"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>4</v>
@@ -2749,16 +3896,16 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J95" s="5"/>
     </row>
@@ -2768,7 +3915,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>4</v>
@@ -2878,7 +4025,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3102,7 +4249,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3367,7 +4514,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>28</v>
@@ -3667,7 +4814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2246D-446E-45CE-B123-78C9848DD0D0}">
   <dimension ref="A5:O59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -3699,7 +4846,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3708,7 +4855,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -3730,7 +4877,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
@@ -3741,7 +4888,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>49</v>
@@ -3752,7 +4899,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
@@ -3771,12 +4918,12 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -3795,7 +4942,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3826,7 +4973,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3836,7 +4983,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
@@ -3873,12 +5020,12 @@
         <v>7</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>49</v>
@@ -3890,13 +5037,13 @@
         <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -3904,7 +5051,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>49</v>
@@ -3915,7 +5062,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -3926,7 +5073,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>4</v>
@@ -3971,13 +5118,13 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s">
         <v>22</v>
@@ -3988,7 +5135,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -4027,7 +5174,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>22</v>
@@ -4041,7 +5188,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
@@ -4086,13 +5233,13 @@
         <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K40" t="s">
         <v>10</v>
@@ -4115,7 +5262,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>22</v>
@@ -4172,7 +5319,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E45" s="1" t="b">
         <v>0</v>
@@ -4195,7 +5342,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>22</v>
@@ -4207,7 +5354,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>10</v>
@@ -4219,7 +5366,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>4</v>
@@ -4264,13 +5411,13 @@
         <v>25</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
@@ -4281,7 +5428,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>4</v>
@@ -4320,7 +5467,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>22</v>
@@ -4331,7 +5478,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>28</v>
@@ -4353,7 +5500,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>4</v>
@@ -4392,7 +5539,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>22</v>

--- a/Protocols.xlsx
+++ b/Protocols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ChaosLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B565EDFC-5EDC-4942-B703-6BB8B6CD0CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0000A56E-E0D5-4B48-8B39-1523176F617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-19650" windowWidth="28155" windowHeight="20985" activeTab="1" xr2:uid="{B267B5E8-1B2C-4F20-8775-6BC63BF4DC0C}"/>
   </bookViews>
